--- a/cypress/fixtures/expectedResults/IM/CIM MT 03 15 22.xlsx
+++ b/cypress/fixtures/expectedResults/IM/CIM MT 03 15 22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/WebstormProjects/rest-apiNew/cypress/fixtures/expectedResults/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/MyOwnProject/api-test-cypress/cypress/fixtures/expectedResults/IM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A46A50-48C9-4746-9747-12A1D92DFD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C805E362-8E43-3841-8430-D7C042598C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20800" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
+    <workbookView xWindow="-2420" yWindow="-27320" windowWidth="35840" windowHeight="20800" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms and Bulletins" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="350">
   <si>
     <t>CRITERIA</t>
   </si>
@@ -1166,6 +1166,9 @@
   <si>
     <t>1. Current AAISdirect Search (Criteria is Line = CIM, State = Montana, Publication = All advisory information)</t>
   </si>
+  <si>
+    <t>PFM</t>
+  </si>
 </sst>
 </file>
 
@@ -1174,7 +1177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1271,19 +1274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF545454"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1318,9 +1308,18 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color rgb="FF545454"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1331,7 +1330,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1376,22 +1375,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD7D7D7"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD7D7D7"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1406,24 +1394,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1434,21 +1410,35 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1469,7 +1459,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1757,7 +1747,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1765,1338 +1755,2754 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6089C9B-6C1F-41AA-9E90-19600F8F153D}">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:O198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="45.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="9"/>
+    <col min="2" max="2" width="45.33203125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" style="9"/>
+    <col min="5" max="5" width="12.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" style="9"/>
+    <col min="8" max="8" width="48" style="9" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="25">
         <v>44635</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="79" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="25"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="25"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:6" ht="65" x14ac:dyDescent="0.15">
+      <c r="B9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="E10" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="E11" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="E12" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+      <c r="E13" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="E14" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+      <c r="E15" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="E16" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="E17" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="E18" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="D19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="E19" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="E20" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
+      <c r="E21" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+      <c r="E22" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
+      <c r="E23" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="E24" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B25" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
+      <c r="E25" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B26" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="C26" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="E26" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="E27" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="E28" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B29" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="E29" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B30" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="C30" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="E30" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B31" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="E31" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B32" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="E32" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B33" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="28" t="s">
+      <c r="E33" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
+      <c r="E34" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="D35" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="E35" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B36" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="E36" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B37" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="E37" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B38" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="D38" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="E38" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="D39" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
+      <c r="E39" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B40" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="E40" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B41" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="D41" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
+      <c r="E41" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B42" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="C42" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="D42" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="E42" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B43" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="C43" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+      <c r="E43" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B44" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="D44" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+      <c r="E44" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B45" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="C45" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="D45" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+      <c r="E45" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B46" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="C46" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
+      <c r="E46" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B47" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="C47" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="D47" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="E47" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B48" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="D48" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="E48" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="C49" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="D49" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
+      <c r="E49" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B50" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="C50" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="D50" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
+      <c r="E50" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B51" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="C51" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="D51" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
+      <c r="E51" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B52" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="C52" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="D52" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
+      <c r="E52" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B53" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="C53" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="D53" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+      <c r="E53" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B54" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="C54" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="D54" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
+      <c r="E54" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B55" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="C55" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="D55" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
+      <c r="E55" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B56" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="C56" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="D56" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="s">
+      <c r="E56" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B57" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="C57" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="D57" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
+      <c r="E57" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B58" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="C58" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="D58" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+      <c r="E58" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B59" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="C59" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="D59" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="s">
+      <c r="E59" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B60" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="C60" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="D60" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
+      <c r="E60" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B61" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="C61" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="D61" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+      <c r="E61" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B62" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="C62" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="D62" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
+      <c r="E62" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B63" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="C63" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="D63" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="s">
+      <c r="E63" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B64" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="C64" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="D64" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="s">
+      <c r="E64" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B65" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="C65" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="D65" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
+      <c r="E65" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B66" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="C66" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="D66" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="29" t="s">
+      <c r="E66" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B67" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="C67" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="D67" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
+      <c r="E67" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B68" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="C68" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="D68" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29" t="s">
+      <c r="E68" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B69" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="C69" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="D69" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="29" t="s">
+      <c r="E69" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B70" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="C70" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="D70" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
+      <c r="E70" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B71" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="C71" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="D71" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="29" t="s">
+      <c r="E71" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B72" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="C72" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="D72" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="J72" s="10" t="s">
+      <c r="E72" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K72" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="K72" s="25" t="s">
+      <c r="L72" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="L72" s="10" t="s">
+      <c r="M72" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="N72" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
+      <c r="O72" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B73" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="C73" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="D73" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="J73" s="10" t="s">
+      <c r="E73" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K73" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="K73" s="25" t="s">
+      <c r="L73" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="L73" s="10" t="s">
+      <c r="M73" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="N73" s="14" t="s">
+      <c r="O73" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
+    <row r="74" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B74" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="C74" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="D74" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="29" t="s">
+      <c r="E74" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B75" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="C75" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="D75" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="29" t="s">
+      <c r="E75" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B76" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="C76" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="D76" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D76" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="29" t="s">
+      <c r="E76" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B77" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="C77" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="D77" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D77" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
+      <c r="E77" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B78" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="C78" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="D78" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D78" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="29" t="s">
+      <c r="E78" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B79" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="C79" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="D79" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D79" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="29" t="s">
+      <c r="E79" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B80" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="C80" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="D80" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D80" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="11"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="11"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="11"/>
+      <c r="E80" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B81" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="G81" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B82" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="G82" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B83" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="G83" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B84" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="G84" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B85" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="G85" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B86" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="G86" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B87" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="G87" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="39" x14ac:dyDescent="0.15">
+      <c r="B88" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="G88" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H88" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B89" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="G89" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H89" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B90" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="G90" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H90" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B91" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="G91" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H91" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B92" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E92" s="9"/>
+      <c r="G92" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H92" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B93" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="G93" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H93" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B94" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="G94" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H94" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B95" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E95" s="9"/>
+      <c r="G95" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H95" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B96" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E96" s="9"/>
+      <c r="G96" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H96" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B97" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E97" s="9"/>
+      <c r="G97" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H97" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B98" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E98" s="9"/>
+      <c r="G98" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H98" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B99" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="G99" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H99" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B100" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E100" s="9"/>
+      <c r="G100" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H100" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B101" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="G101" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H101" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="65" x14ac:dyDescent="0.15">
+      <c r="B102" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="G102" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H102" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B103" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="G103" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H103" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B104" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="G104" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H104" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B105" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E105" s="9"/>
+      <c r="G105" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H105" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B106" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E106" s="9"/>
+      <c r="G106" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H106" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B107" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="G107" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H107" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B108" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E108" s="9"/>
+      <c r="G108" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H108" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B109" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E109" s="9"/>
+      <c r="G109" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H109" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B110" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="G110" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H110" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B111" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="G111" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H111" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B112" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="G112" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H112" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B113" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="G113" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H113" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B114" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="G114" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H114" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B115" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H115" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B116" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="G116" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B117" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="G117" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" ht="78" x14ac:dyDescent="0.15">
+      <c r="B118" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E118" s="9"/>
+      <c r="G118" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H118" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B119" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="G119" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H119" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B120" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="G120" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H120" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B121" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="G121" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H121" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B122" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="G122" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H122" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B123" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="G123" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H123" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B124" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="G124" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H124" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B125" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E125" s="9"/>
+      <c r="G125" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H125" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B126" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E126" s="9"/>
+      <c r="G126" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H126" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B127" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E127" s="9"/>
+      <c r="G127" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H127" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B128" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E128" s="9"/>
+      <c r="G128" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H128" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B129" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E129" s="9"/>
+      <c r="G129" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H129" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B130" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E130" s="9"/>
+      <c r="G130" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H130" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B131" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E131" s="9"/>
+      <c r="G131" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H131" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B132" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E132" s="9"/>
+      <c r="G132" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H132" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B133" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E133" s="9"/>
+      <c r="G133" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H133" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B134" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E134" s="9"/>
+      <c r="G134" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H134" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B135" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E135" s="9"/>
+      <c r="G135" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H135" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B136" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E136" s="9"/>
+      <c r="G136" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H136" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B137" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E137" s="9"/>
+      <c r="G137" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H137" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B138" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E138" s="9"/>
+      <c r="G138" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H138" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B139" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E139" s="9"/>
+      <c r="G139" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H139" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B140" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="G140" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H140" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B141" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E141" s="9"/>
+      <c r="G141" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H141" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B142" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E142" s="9"/>
+      <c r="G142" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H142" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" ht="13" x14ac:dyDescent="0.15">
+      <c r="B143" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E143" s="9"/>
+      <c r="G143" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H143" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" ht="52" x14ac:dyDescent="0.15">
+      <c r="B144" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E144" s="9"/>
+      <c r="G144" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H144" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" ht="26" x14ac:dyDescent="0.15">
+      <c r="B145" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E145" s="9"/>
+      <c r="G145" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H145" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" ht="26" x14ac:dyDescent="0.15">
+      <c r="B146" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E146" s="9"/>
+      <c r="G146" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H146" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B147" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E147" s="9"/>
+      <c r="G147" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H147" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B148" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E148" s="9"/>
+      <c r="G148" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H148" s="21" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D149" s="10"/>
+      <c r="E149" s="9"/>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D150" s="10"/>
+      <c r="E150" s="9"/>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D151" s="10"/>
+      <c r="E151" s="9"/>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D152" s="10"/>
+      <c r="E152" s="9"/>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D153" s="10"/>
+      <c r="E153" s="9"/>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D154" s="10"/>
+      <c r="E154" s="9"/>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D155" s="10"/>
+      <c r="E155" s="9"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D156" s="10"/>
+      <c r="E156" s="9"/>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D157" s="10"/>
+      <c r="E157" s="9"/>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D158" s="10"/>
+      <c r="E158" s="9"/>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D159" s="10"/>
+      <c r="E159" s="9"/>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D160" s="10"/>
+      <c r="E160" s="9"/>
+    </row>
+    <row r="161" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D161" s="10"/>
+      <c r="E161" s="9"/>
+    </row>
+    <row r="162" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D162" s="10"/>
+      <c r="E162" s="9"/>
+    </row>
+    <row r="163" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D163" s="10"/>
+      <c r="E163" s="9"/>
+    </row>
+    <row r="164" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D164" s="10"/>
+      <c r="E164" s="9"/>
+    </row>
+    <row r="165" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D165" s="10"/>
+      <c r="E165" s="9"/>
+    </row>
+    <row r="166" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D166" s="10"/>
+      <c r="E166" s="9"/>
+    </row>
+    <row r="167" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D167" s="10"/>
+      <c r="E167" s="9"/>
+    </row>
+    <row r="168" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D168" s="10"/>
+      <c r="E168" s="9"/>
+    </row>
+    <row r="169" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D169" s="10"/>
+      <c r="E169" s="9"/>
+    </row>
+    <row r="170" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D170" s="10"/>
+      <c r="E170" s="9"/>
+    </row>
+    <row r="171" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D171" s="10"/>
+      <c r="E171" s="9"/>
+    </row>
+    <row r="172" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D172" s="10"/>
+      <c r="E172" s="9"/>
+    </row>
+    <row r="173" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D173" s="10"/>
+      <c r="E173" s="9"/>
+    </row>
+    <row r="174" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D174" s="10"/>
+      <c r="E174" s="9"/>
+    </row>
+    <row r="175" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D175" s="10"/>
+      <c r="E175" s="9"/>
+    </row>
+    <row r="176" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D176" s="10"/>
+      <c r="E176" s="9"/>
+    </row>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D177" s="10"/>
+      <c r="E177" s="9"/>
+    </row>
+    <row r="178" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D178" s="10"/>
+      <c r="E178" s="9"/>
+    </row>
+    <row r="179" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D179" s="10"/>
+      <c r="E179" s="9"/>
+    </row>
+    <row r="180" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D180" s="10"/>
+      <c r="E180" s="9"/>
+    </row>
+    <row r="181" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D181" s="10"/>
+      <c r="E181" s="9"/>
+    </row>
+    <row r="182" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D182" s="10"/>
+      <c r="E182" s="9"/>
+    </row>
+    <row r="183" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D183" s="10"/>
+      <c r="E183" s="9"/>
+    </row>
+    <row r="184" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D184" s="10"/>
+      <c r="E184" s="9"/>
+    </row>
+    <row r="185" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D185" s="10"/>
+      <c r="E185" s="9"/>
+    </row>
+    <row r="186" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D186" s="10"/>
+      <c r="E186" s="9"/>
+    </row>
+    <row r="187" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D187" s="10"/>
+      <c r="E187" s="9"/>
+    </row>
+    <row r="188" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D188" s="10"/>
+      <c r="E188" s="9"/>
+    </row>
+    <row r="189" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D189" s="10"/>
+      <c r="E189" s="9"/>
+    </row>
+    <row r="190" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D190" s="10"/>
+      <c r="E190" s="9"/>
+    </row>
+    <row r="191" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D191" s="10"/>
+      <c r="E191" s="9"/>
+    </row>
+    <row r="192" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D192" s="10"/>
+      <c r="E192" s="9"/>
+    </row>
+    <row r="193" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D193" s="10"/>
+      <c r="E193" s="9"/>
+    </row>
+    <row r="194" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D194" s="10"/>
+      <c r="E194" s="9"/>
+    </row>
+    <row r="195" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D195" s="10"/>
+      <c r="E195" s="9"/>
+    </row>
+    <row r="196" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D196" s="10"/>
+      <c r="E196" s="9"/>
+    </row>
+    <row r="197" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D197" s="10"/>
+      <c r="E197" s="9"/>
+    </row>
+    <row r="198" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D198" s="10"/>
+      <c r="E198" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C23" twoDigitTextYear="1"/>
+    <ignoredError sqref="D23" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3105,8 +4511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E778E-6EE7-48DC-9458-6E54369E644F}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3170,819 +4576,819 @@
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="G60" s="14" t="s">
+      <c r="G60" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="G62" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="G63" s="14" t="s">
+      <c r="G63" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="G65" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G70" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="G71" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="G72" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="G73" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="G74" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="G75" s="14" t="s">
+      <c r="G75" s="10" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4003,216 +5409,216 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="12"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="13" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="14" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="22" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+      <c r="A13" s="12"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="13" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="14" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="14" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
+      <c r="A20" s="12"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="13" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="14" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="22" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
+      <c r="A24" s="15"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="14" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
+      <c r="A28" s="12"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="13" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="14" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
+      <c r="A32" s="12"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="13" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="14" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="14" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
+      <c r="A37" s="12"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="13" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="14" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="14" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="12" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
+      <c r="A43" s="12"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
+      <c r="A44" s="15"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
+      <c r="A45" s="23"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
+      <c r="A47" s="13"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
+      <c r="A48" s="14"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
+      <c r="A49" s="16"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
+      <c r="A51" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cypress/fixtures/expectedResults/IM/CIM MT 03 15 22.xlsx
+++ b/cypress/fixtures/expectedResults/IM/CIM MT 03 15 22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/MyOwnProject/api-test-cypress/cypress/fixtures/expectedResults/IM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C805E362-8E43-3841-8430-D7C042598C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8881A1FF-38E9-D645-A369-A5C78AC71A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2420" yWindow="-27320" windowWidth="35840" windowHeight="20800" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
+    <workbookView xWindow="-2440" yWindow="-27340" windowWidth="35840" windowHeight="20800" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms and Bulletins" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="394">
   <si>
     <t>CRITERIA</t>
   </si>
@@ -1167,7 +1167,139 @@
     <t>1. Current AAISdirect Search (Criteria is Line = CIM, State = Montana, Publication = All advisory information)</t>
   </si>
   <si>
-    <t>PFM</t>
+    <t>Forms</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Manual Materials</t>
+  </si>
+  <si>
+    <t>Forms and Endorsements Lists</t>
+  </si>
+  <si>
+    <t>Advisory Information</t>
+  </si>
+  <si>
+    <t>Declarations</t>
+  </si>
+  <si>
+    <t>Sample Disclosure Notice</t>
+  </si>
+  <si>
+    <t>Statistical Plans</t>
+  </si>
+  <si>
+    <t>Statistical Plan</t>
+  </si>
+  <si>
+    <t>Education Materials</t>
+  </si>
+  <si>
+    <t>Side by Side Comparison</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Status Report</t>
+  </si>
+  <si>
+    <t>Cause of Loss Report</t>
+  </si>
+  <si>
+    <t>Multi &amp; State-specific Manuals</t>
+  </si>
+  <si>
+    <t>Forms and Endorsements List</t>
+  </si>
+  <si>
+    <t>Pertains to REV. 2.0 - Accounts Receivable Supplemental Declarations</t>
+  </si>
+  <si>
+    <t>Pertains to REV. 2.0 - Negative Film Supplemental Declarations</t>
+  </si>
+  <si>
+    <t>Pertains to REV. 2.0 - Photographic Equipment Supplemental Declarations</t>
+  </si>
+  <si>
+    <t>Pertains to REV. 2.0 - Physicians &amp; Dentists Equipment Supplemental Declarations</t>
+  </si>
+  <si>
+    <t>Pertains to REV. 2.0 - Sign Supplemental Declarations</t>
+  </si>
+  <si>
+    <t>Pertains to REV. 2.0 - Theatrical Property Supplemental Declarations</t>
+  </si>
+  <si>
+    <t>Pertains to REV. 2.0 - Valuable Papers And Records Supplemental Declarations</t>
+  </si>
+  <si>
+    <t>Pertains to REV. 2.0 - Camera and Musical Instrument Dealers Supplemental Declarations</t>
+  </si>
+  <si>
+    <t>Pertains to REV. 2.0 - Floor Plan Merchandise Supplemental Declarations</t>
+  </si>
+  <si>
+    <t>Pertains to REV. 2.0 - Implement Dealers Supplemental Declarations</t>
+  </si>
+  <si>
+    <t>Pertains to REV. 2.0 - Jewelry Dealers Supplemental Declarations</t>
+  </si>
+  <si>
+    <t>Pertains to REV. 2.0 - Musical Instruments Supplemental Declarations</t>
+  </si>
+  <si>
+    <t>Pertains to Rev. 01 05 - Accounts Receivable Coverage</t>
+  </si>
+  <si>
+    <t>Pertains to Rev. 01 05 - Valuable Papers And Records Coverage</t>
+  </si>
+  <si>
+    <t>Pertains to Rev. 01 05 - Camera and Musical Instrument Dealers Coverage</t>
+  </si>
+  <si>
+    <t>Pertains to Rev. 01 05 - Floor Plan Merchandise Coverage</t>
+  </si>
+  <si>
+    <t>Pertains to Rev. 01 05 - Jewelry Dealers Coverage</t>
+  </si>
+  <si>
+    <t>Pertains to Rev. 01 05 - Mobile Equipment Dealers Coverage</t>
+  </si>
+  <si>
+    <t>Pertains to Rev. 01 05 - Negative Film Coverage</t>
+  </si>
+  <si>
+    <t>Pertains to Rev. 01 05 - Theatrical Property Coverage</t>
+  </si>
+  <si>
+    <t>Pertains to Rev. 01 05 - Physicians and Dentists Equipment Coverage</t>
+  </si>
+  <si>
+    <t>Pertains to Rev. 01 05 - Photographic Equipment Coverage</t>
+  </si>
+  <si>
+    <t>Pertains to Rev. 01 05 - Musical Instruments Coverage</t>
+  </si>
+  <si>
+    <t>Pertains to Rev. 01 05 - Sign Coverage</t>
+  </si>
+  <si>
+    <t>SAMPLE POLICYHOLDER NOTICE IM 9901 03 20</t>
+  </si>
+  <si>
+    <t>SAMPLE POLICYHOLDER NOTICE - VIRUS OR BACTERIA EXCLUSION</t>
+  </si>
+  <si>
+    <t>Countrywide - IM 1000 03 99 to 01 05</t>
+  </si>
+  <si>
+    <t>CAUSE OF LOSS REPORT - IM - 2017-2021</t>
+  </si>
+  <si>
+    <t>CIM MULTISTATE FORMS &amp; END. LIST 02 11 15</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1307,7 +1439,7 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1315,8 +1447,22 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF545454"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1379,7 +1525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1421,26 +1567,37 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1755,2754 +1912,3377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6089C9B-6C1F-41AA-9E90-19600F8F153D}">
-  <dimension ref="A1:O198"/>
+  <dimension ref="A1:P198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I138" sqref="I138"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="9"/>
-    <col min="2" max="2" width="45.33203125" style="9" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="9"/>
-    <col min="5" max="5" width="12.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.83203125" style="9"/>
-    <col min="8" max="8" width="48" style="9" customWidth="1"/>
-    <col min="9" max="9" width="37.6640625" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="9"/>
+    <col min="1" max="1" width="29.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" style="25" customWidth="1"/>
+    <col min="3" max="4" width="55.1640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="25"/>
+    <col min="6" max="6" width="12.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.83203125" style="25"/>
+    <col min="9" max="9" width="48" style="25" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" style="25" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="27">
         <v>44635</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="25"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="25"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="25"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C8" s="26"/>
-    </row>
-    <row r="9" spans="1:6" ht="65" x14ac:dyDescent="0.15">
-      <c r="B9" s="27" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="27"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="C9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="E9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="F9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="G9" s="31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B10" s="29" t="s">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="E10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B11" s="31" t="s">
+      <c r="F10" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="D11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="E11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B12" s="29" t="s">
+      <c r="F11" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="D12" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="E12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B13" s="29" t="s">
+      <c r="F12" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="D13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="E13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B14" s="29" t="s">
+      <c r="F13" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="D14" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="E14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B15" s="29" t="s">
+      <c r="F14" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="D15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="E15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="F15" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="D16" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="E16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="F16" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="D17" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="E17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B18" s="29" t="s">
+      <c r="F17" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="D18" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="E18" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B19" s="29" t="s">
+      <c r="F18" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="D19" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="E19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B20" s="29" t="s">
+      <c r="F19" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="D20" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="E20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B21" s="29" t="s">
+      <c r="F20" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="D21" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="E21" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B22" s="29" t="s">
+      <c r="F21" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="D22" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="E22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B23" s="29" t="s">
+      <c r="F22" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C23" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="D23" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="E23" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B24" s="29" t="s">
+      <c r="F23" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="D24" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="E24" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B25" s="29" t="s">
+      <c r="F24" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="D25" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="E25" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B26" s="29" t="s">
+      <c r="F25" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="D26" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="E26" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B27" s="29" t="s">
+      <c r="F26" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="D27" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="E27" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B28" s="32" t="s">
+      <c r="F27" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C28" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="D28" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="E28" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B29" s="31" t="s">
+      <c r="F28" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C29" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="D29" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="E29" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B30" s="31" t="s">
+      <c r="F29" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C30" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="D30" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="E30" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B31" s="31" t="s">
+      <c r="F30" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C31" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="D31" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="E31" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B32" s="31" t="s">
+      <c r="F31" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C32" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="D32" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="E32" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B33" s="31" t="s">
+      <c r="F32" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C33" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="D33" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="E33" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B34" s="29" t="s">
+      <c r="F33" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C34" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="D34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="E34" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B35" s="29" t="s">
+      <c r="F34" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C35" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="D35" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="E35" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B36" s="31" t="s">
+      <c r="F35" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C36" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="D36" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="E36" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B37" s="31" t="s">
+      <c r="F36" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C37" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="D37" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="E37" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B38" s="31" t="s">
+      <c r="F37" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C38" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="D38" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="E38" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B39" s="31" t="s">
+      <c r="F38" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C39" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="D39" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="E39" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B40" s="31" t="s">
+      <c r="F39" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C40" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="D40" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="E40" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B41" s="31" t="s">
+      <c r="F40" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C41" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="D41" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="E41" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B42" s="31" t="s">
+      <c r="F41" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C42" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="D42" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="E42" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B43" s="31" t="s">
+      <c r="F42" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C43" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="D43" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="E43" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B44" s="31" t="s">
+      <c r="F43" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C44" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="D44" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="E44" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B45" s="31" t="s">
+      <c r="F44" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C45" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="D45" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="E45" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B46" s="31" t="s">
+      <c r="F45" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C46" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="D46" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="E46" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B47" s="31" t="s">
+      <c r="F46" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C47" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="D47" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="E47" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B48" s="31" t="s">
+      <c r="F47" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C48" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="D48" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="E48" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B49" s="31" t="s">
+      <c r="F48" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C49" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="D49" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="E49" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B50" s="31" t="s">
+      <c r="F49" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C50" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="D50" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="E50" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B51" s="31" t="s">
+      <c r="F50" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C51" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="D51" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="E51" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B52" s="31" t="s">
+      <c r="F51" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C52" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="D52" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="E52" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B53" s="31" t="s">
+      <c r="F52" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C53" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="D53" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="E53" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B54" s="31" t="s">
+      <c r="F53" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C54" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="D54" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="E54" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B55" s="31" t="s">
+      <c r="F54" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C55" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="D55" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="E55" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B56" s="31" t="s">
+      <c r="F55" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C56" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="D56" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="E56" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B57" s="31" t="s">
+      <c r="F56" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C57" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="D57" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="E57" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B58" s="31" t="s">
+      <c r="F57" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C58" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="D58" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="E58" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B59" s="31" t="s">
+      <c r="F58" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C59" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="D59" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="E59" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B60" s="31" t="s">
+      <c r="F59" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C60" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="D60" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="30" t="s">
+      <c r="E60" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B61" s="31" t="s">
+      <c r="F60" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C61" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="D61" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="E61" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B62" s="31" t="s">
+      <c r="F61" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C62" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="D62" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="E62" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B63" s="31" t="s">
+      <c r="F62" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C63" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="D63" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="E63" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B64" s="31" t="s">
+      <c r="F63" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C64" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="D64" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="E64" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B65" s="31" t="s">
+      <c r="F64" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C65" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="D65" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="E65" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B66" s="31" t="s">
+      <c r="F65" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C66" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="D66" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="E66" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B67" s="31" t="s">
+      <c r="F66" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C67" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="D67" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="E67" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E67" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B68" s="31" t="s">
+      <c r="F67" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C68" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="D68" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="E68" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B69" s="31" t="s">
+      <c r="F68" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C69" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="D69" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="E69" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B70" s="31" t="s">
+      <c r="F69" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C70" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="D70" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="E70" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B71" s="31" t="s">
+      <c r="F70" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G70" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C71" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="D71" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="E71" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B72" s="31" t="s">
+      <c r="F71" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C72" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="D72" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="E72" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="K72" s="9" t="s">
+      <c r="F72" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="L72" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="L72" s="21" t="s">
+      <c r="M72" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="M72" s="9" t="s">
+      <c r="N72" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="O72" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B73" s="31" t="s">
+      <c r="P72" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C73" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="D73" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="E73" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="K73" s="9" t="s">
+      <c r="F73" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="L73" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="L73" s="21" t="s">
+      <c r="M73" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="M73" s="9" t="s">
+      <c r="N73" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="O73" s="10" t="s">
+      <c r="P73" s="26" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B74" s="31" t="s">
+    <row r="74" spans="1:16" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C74" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="30" t="s">
+      <c r="D74" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="E74" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E74" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B75" s="31" t="s">
+      <c r="F74" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C75" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="D75" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="E75" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B76" s="31" t="s">
+      <c r="F75" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C76" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="D76" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="E76" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="E76" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B77" s="31" t="s">
+      <c r="F76" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C77" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="D77" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="E77" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B78" s="31" t="s">
+      <c r="F77" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C78" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="D78" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="E78" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B79" s="31" t="s">
+      <c r="F78" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G78" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C79" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="D79" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="E79" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B80" s="31" t="s">
+      <c r="F79" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C80" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="D80" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="E80" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E80" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B81" s="9" t="s">
+      <c r="F80" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G80" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C81" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="D81" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="E81" s="9"/>
-      <c r="G81" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H81" s="9" t="s">
+      <c r="F81" s="25"/>
+      <c r="H81" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="I81" s="25" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B82" s="9" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C82" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="D82" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E82" s="9"/>
-      <c r="G82" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H82" s="9" t="s">
+      <c r="F82" s="25"/>
+      <c r="H82" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="I82" s="25" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B83" s="9" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C83" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="D83" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="E83" s="9"/>
-      <c r="G83" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H83" s="9" t="s">
+      <c r="F83" s="25"/>
+      <c r="H83" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="I83" s="25" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B84" s="9" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="D84" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="E84" s="9"/>
-      <c r="G84" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H84" s="9" t="s">
+      <c r="F84" s="25"/>
+      <c r="H84" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="I84" s="25" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B85" s="9" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="D85" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="E85" s="9"/>
-      <c r="G85" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H85" s="9" t="s">
+      <c r="F85" s="25"/>
+      <c r="H85" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="I85" s="25" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B86" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C86" s="18" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="D86" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="E86" s="9"/>
-      <c r="G86" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H86" s="9" t="s">
+      <c r="F86" s="25"/>
+      <c r="H86" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="I86" s="25" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B87" s="9" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C87" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="D87" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="E87" s="9"/>
-      <c r="G87" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H87" s="9" t="s">
+      <c r="F87" s="25"/>
+      <c r="H87" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I87" s="25" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="39" x14ac:dyDescent="0.15">
-      <c r="B88" s="9" t="s">
+    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C88" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="D88" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="E88" s="9"/>
-      <c r="G88" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H88" s="21" t="s">
+      <c r="F88" s="25"/>
+      <c r="H88" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I88" s="36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B89" s="9" t="s">
+    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C89" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="D89" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="E89" s="9"/>
-      <c r="G89" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H89" s="21" t="s">
+      <c r="F89" s="25"/>
+      <c r="H89" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I89" s="36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B90" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C90" s="9" t="s">
+    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D90" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="E90" s="9"/>
-      <c r="G90" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H90" s="21" t="s">
+      <c r="F90" s="25"/>
+      <c r="H90" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I90" s="36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B91" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C91" s="9" t="s">
+    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="D91" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="E91" s="9"/>
-      <c r="G91" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H91" s="21" t="s">
+      <c r="F91" s="25"/>
+      <c r="H91" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I91" s="36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B92" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C92" s="9" t="s">
+    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D92" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="E92" s="9"/>
-      <c r="G92" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H92" s="21" t="s">
+      <c r="F92" s="25"/>
+      <c r="H92" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I92" s="36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B93" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C93" s="9" t="s">
+    <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="D93" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="E93" s="9"/>
-      <c r="G93" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H93" s="21" t="s">
+      <c r="F93" s="25"/>
+      <c r="H93" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I93" s="36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B94" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C94" s="9" t="s">
+    <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D94" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="E94" s="9"/>
-      <c r="G94" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H94" s="21" t="s">
+      <c r="F94" s="25"/>
+      <c r="H94" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I94" s="36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B95" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C95" s="9" t="s">
+    <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B95" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D95" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="E95" s="9"/>
-      <c r="G95" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H95" s="21" t="s">
+      <c r="F95" s="25"/>
+      <c r="H95" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I95" s="36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B96" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C96" s="9" t="s">
+    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="D96" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E96" s="9"/>
-      <c r="G96" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H96" s="21" t="s">
+      <c r="F96" s="25"/>
+      <c r="H96" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I96" s="36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B97" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C97" s="9" t="s">
+    <row r="97" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B97" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D97" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="E97" s="9"/>
-      <c r="G97" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H97" s="21" t="s">
+      <c r="F97" s="25"/>
+      <c r="H97" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I97" s="36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B98" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C98" s="9" t="s">
+    <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="D98" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="E98" s="9"/>
-      <c r="G98" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H98" s="21" t="s">
+      <c r="F98" s="25"/>
+      <c r="H98" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I98" s="36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B99" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C99" s="9" t="s">
+    <row r="99" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B99" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D99" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="E99" s="9"/>
-      <c r="G99" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H99" s="21" t="s">
+      <c r="F99" s="25"/>
+      <c r="H99" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I99" s="36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B100" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C100" s="9" t="s">
+    <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="D100" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="E100" s="9"/>
-      <c r="G100" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H100" s="21" t="s">
+      <c r="F100" s="25"/>
+      <c r="H100" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I100" s="36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B101" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C101" s="9" t="s">
+    <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B101" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D101" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="E101" s="9"/>
-      <c r="G101" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H101" s="21" t="s">
+      <c r="F101" s="25"/>
+      <c r="H101" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I101" s="36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="65" x14ac:dyDescent="0.15">
-      <c r="B102" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C102" s="9" t="s">
+    <row r="102" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B102" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D102" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="E102" s="9"/>
-      <c r="G102" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H102" s="21" t="s">
+      <c r="F102" s="25"/>
+      <c r="H102" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I102" s="36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="103" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B103" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C103" s="9" t="s">
+    <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D103" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="E103" s="9"/>
-      <c r="G103" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H103" s="21" t="s">
+      <c r="F103" s="25"/>
+      <c r="H103" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I103" s="36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="104" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B104" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C104" s="9" t="s">
+    <row r="104" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D104" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="E104" s="9"/>
-      <c r="G104" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H104" s="21" t="s">
+      <c r="F104" s="25"/>
+      <c r="H104" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I104" s="36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B105" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C105" s="9" t="s">
+    <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="D105" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="E105" s="9"/>
-      <c r="G105" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H105" s="21" t="s">
+      <c r="F105" s="25"/>
+      <c r="H105" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I105" s="36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="106" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B106" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C106" s="9" t="s">
+    <row r="106" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B106" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="D106" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="E106" s="9"/>
-      <c r="G106" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H106" s="21" t="s">
+      <c r="F106" s="25"/>
+      <c r="H106" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I106" s="36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="107" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B107" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C107" s="9" t="s">
+    <row r="107" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B107" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D107" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="E107" s="9"/>
-      <c r="G107" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H107" s="21" t="s">
+      <c r="F107" s="25"/>
+      <c r="H107" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I107" s="36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="108" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B108" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C108" s="9" t="s">
+    <row r="108" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B108" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D108" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="E108" s="9"/>
-      <c r="G108" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H108" s="21" t="s">
+      <c r="F108" s="25"/>
+      <c r="H108" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I108" s="36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="109" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B109" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C109" s="9" t="s">
+    <row r="109" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B109" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D109" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="E109" s="9"/>
-      <c r="G109" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H109" s="21" t="s">
+      <c r="F109" s="25"/>
+      <c r="H109" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I109" s="36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B110" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C110" s="9" t="s">
+    <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B110" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D110" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="E110" s="9"/>
-      <c r="G110" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H110" s="21" t="s">
+      <c r="F110" s="25"/>
+      <c r="H110" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I110" s="36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="111" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B111" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C111" s="9" t="s">
+    <row r="111" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="D111" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="E111" s="9"/>
-      <c r="G111" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H111" s="21" t="s">
+      <c r="F111" s="25"/>
+      <c r="H111" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I111" s="36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="112" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B112" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C112" s="9" t="s">
+    <row r="112" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B112" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="D112" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="E112" s="9"/>
-      <c r="G112" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H112" s="21" t="s">
+      <c r="F112" s="25"/>
+      <c r="H112" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I112" s="36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B113" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C113" s="9" t="s">
+    <row r="113" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B113" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="D113" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E113" s="9"/>
-      <c r="G113" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H113" s="21" t="s">
+      <c r="F113" s="25"/>
+      <c r="H113" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I113" s="36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B114" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C114" s="9" t="s">
+    <row r="114" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B114" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="D114" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="E114" s="9"/>
-      <c r="G114" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H114" s="21" t="s">
+      <c r="F114" s="25"/>
+      <c r="H114" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I114" s="36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B115" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E115" s="9" t="s">
+    <row r="115" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B115" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="F115" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="G115" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H115" s="21" t="s">
+      <c r="H115" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I115" s="36" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B116" s="9" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="B116" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C116" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="D116" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="E116" s="9"/>
-      <c r="G116" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H116" s="9" t="s">
+      <c r="F116" s="25"/>
+      <c r="H116" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I116" s="25" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B117" s="9" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="B117" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C117" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="D117" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="E117" s="9"/>
-      <c r="G117" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H117" s="9" t="s">
+      <c r="F117" s="25"/>
+      <c r="H117" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I117" s="25" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="78" x14ac:dyDescent="0.15">
-      <c r="B118" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="C118" s="9" t="s">
+    <row r="118" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B118" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D118" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="E118" s="9"/>
-      <c r="G118" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H118" s="21" t="s">
+      <c r="F118" s="25"/>
+      <c r="H118" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I118" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="119" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B119" s="9" t="s">
+    <row r="119" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B119" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C119" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="D119" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E119" s="9"/>
-      <c r="G119" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H119" s="21" t="s">
+      <c r="F119" s="25"/>
+      <c r="H119" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I119" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="120" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B120" s="9" t="s">
+    <row r="120" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B120" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C120" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="D120" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="E120" s="9"/>
-      <c r="G120" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H120" s="21" t="s">
+      <c r="F120" s="25"/>
+      <c r="H120" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I120" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="121" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B121" s="9" t="s">
+    <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B121" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C121" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="D121" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="E121" s="9"/>
-      <c r="G121" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H121" s="21" t="s">
+      <c r="F121" s="25"/>
+      <c r="H121" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I121" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B122" s="9" t="s">
+    <row r="122" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C122" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="D122" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="E122" s="9"/>
-      <c r="G122" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H122" s="21" t="s">
+      <c r="F122" s="25"/>
+      <c r="H122" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I122" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="123" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B123" s="9" t="s">
+    <row r="123" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B123" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C123" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="D123" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="E123" s="9"/>
-      <c r="G123" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H123" s="21" t="s">
+      <c r="F123" s="25"/>
+      <c r="H123" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I123" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="124" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B124" s="9" t="s">
+    <row r="124" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B124" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C124" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="D124" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E124" s="9"/>
-      <c r="G124" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H124" s="21" t="s">
+      <c r="F124" s="25"/>
+      <c r="H124" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I124" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="125" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B125" s="9" t="s">
+    <row r="125" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B125" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C125" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="D125" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E125" s="9"/>
-      <c r="G125" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H125" s="21" t="s">
+      <c r="F125" s="25"/>
+      <c r="H125" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I125" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="126" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B126" s="9" t="s">
+    <row r="126" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B126" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C126" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="D126" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="E126" s="9"/>
-      <c r="G126" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H126" s="21" t="s">
+      <c r="F126" s="25"/>
+      <c r="H126" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I126" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="127" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B127" s="9" t="s">
+    <row r="127" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B127" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C127" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="D127" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="E127" s="9"/>
-      <c r="G127" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H127" s="21" t="s">
+      <c r="F127" s="25"/>
+      <c r="H127" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I127" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B128" s="9" t="s">
+    <row r="128" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B128" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C128" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="D128" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="E128" s="9"/>
-      <c r="G128" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H128" s="21" t="s">
+      <c r="F128" s="25"/>
+      <c r="H128" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I128" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B129" s="9" t="s">
+    <row r="129" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B129" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C129" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="D129" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="E129" s="9"/>
-      <c r="G129" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H129" s="21" t="s">
+      <c r="F129" s="25"/>
+      <c r="H129" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I129" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B130" s="9" t="s">
+    <row r="130" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B130" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C130" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="D130" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="E130" s="9"/>
-      <c r="G130" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H130" s="21" t="s">
+      <c r="F130" s="25"/>
+      <c r="H130" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I130" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B131" s="9" t="s">
+    <row r="131" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B131" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C131" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="D131" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="E131" s="9"/>
-      <c r="G131" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H131" s="21" t="s">
+      <c r="F131" s="25"/>
+      <c r="H131" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I131" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B132" s="9" t="s">
+    <row r="132" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B132" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C132" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="D132" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="E132" s="9"/>
-      <c r="G132" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H132" s="21" t="s">
+      <c r="F132" s="25"/>
+      <c r="H132" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I132" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B133" s="9" t="s">
+    <row r="133" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B133" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C133" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="D133" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="E133" s="9"/>
-      <c r="G133" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H133" s="21" t="s">
+      <c r="F133" s="25"/>
+      <c r="H133" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I133" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="134" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B134" s="9" t="s">
+    <row r="134" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B134" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C134" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="D134" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="E134" s="9"/>
-      <c r="G134" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H134" s="21" t="s">
+      <c r="F134" s="25"/>
+      <c r="H134" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I134" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B135" s="9" t="s">
+    <row r="135" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B135" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C135" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="D135" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="E135" s="9"/>
-      <c r="G135" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H135" s="21" t="s">
+      <c r="F135" s="25"/>
+      <c r="H135" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I135" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B136" s="9" t="s">
+    <row r="136" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B136" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C136" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="D136" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="E136" s="9"/>
-      <c r="G136" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H136" s="21" t="s">
+      <c r="F136" s="25"/>
+      <c r="H136" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I136" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="137" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B137" s="9" t="s">
+    <row r="137" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C137" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="D137" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="E137" s="9"/>
-      <c r="G137" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H137" s="21" t="s">
+      <c r="F137" s="25"/>
+      <c r="H137" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I137" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="138" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B138" s="9" t="s">
+    <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B138" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C138" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="D138" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="E138" s="9"/>
-      <c r="G138" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H138" s="21" t="s">
+      <c r="F138" s="25"/>
+      <c r="H138" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I138" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B139" s="9" t="s">
+    <row r="139" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B139" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C139" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="D139" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="E139" s="9"/>
-      <c r="G139" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H139" s="21" t="s">
+      <c r="F139" s="25"/>
+      <c r="H139" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I139" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="140" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B140" s="9" t="s">
+    <row r="140" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B140" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C140" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="D140" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="E140" s="9"/>
-      <c r="G140" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H140" s="21" t="s">
+      <c r="F140" s="25"/>
+      <c r="H140" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I140" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="141" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B141" s="9" t="s">
+    <row r="141" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B141" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C141" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="D141" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="E141" s="9"/>
-      <c r="G141" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H141" s="21" t="s">
+      <c r="F141" s="25"/>
+      <c r="H141" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I141" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B142" s="9" t="s">
+    <row r="142" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B142" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C142" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="D142" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="E142" s="9"/>
-      <c r="G142" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H142" s="21" t="s">
+      <c r="F142" s="25"/>
+      <c r="H142" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I142" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B143" s="9" t="s">
+    <row r="143" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B143" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C143" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="D143" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="E143" s="9"/>
-      <c r="G143" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H143" s="21" t="s">
+      <c r="F143" s="25"/>
+      <c r="H143" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I143" s="36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="144" spans="2:8" ht="52" x14ac:dyDescent="0.15">
-      <c r="B144" s="9" t="s">
+    <row r="144" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A144" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="B144" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C144" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="D144" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="E144" s="9"/>
-      <c r="G144" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H144" s="21" t="s">
+      <c r="F144" s="25"/>
+      <c r="H144" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I144" s="36" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="145" spans="2:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="B145" s="9" t="s">
+    <row r="145" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A145" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="B145" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C145" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="D145" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="E145" s="9"/>
-      <c r="G145" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H145" s="21" t="s">
+      <c r="F145" s="25"/>
+      <c r="H145" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I145" s="36" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="146" spans="2:8" ht="26" x14ac:dyDescent="0.15">
-      <c r="B146" s="9" t="s">
+    <row r="146" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A146" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="B146" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C146" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="D146" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="E146" s="9"/>
-      <c r="G146" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H146" s="21" t="s">
+      <c r="F146" s="25"/>
+      <c r="H146" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I146" s="36" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="147" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="9" t="s">
+    <row r="147" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="B147" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C147" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="D147" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="E147" s="9"/>
-      <c r="G147" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H147" s="21" t="s">
+      <c r="F147" s="25"/>
+      <c r="H147" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I147" s="36" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="148" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B148" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C148" s="9" t="s">
+    <row r="148" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="B148" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="C148" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="D148" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="E148" s="9"/>
-      <c r="G148" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H148" s="21" t="s">
+      <c r="F148" s="25"/>
+      <c r="H148" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I148" s="36" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D149" s="10"/>
-      <c r="E149" s="9"/>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D150" s="10"/>
-      <c r="E150" s="9"/>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D151" s="10"/>
-      <c r="E151" s="9"/>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D152" s="10"/>
-      <c r="E152" s="9"/>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D153" s="10"/>
-      <c r="E153" s="9"/>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D154" s="10"/>
-      <c r="E154" s="9"/>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D155" s="10"/>
-      <c r="E155" s="9"/>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D156" s="10"/>
-      <c r="E156" s="9"/>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D157" s="10"/>
-      <c r="E157" s="9"/>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D158" s="10"/>
-      <c r="E158" s="9"/>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D159" s="10"/>
-      <c r="E159" s="9"/>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D160" s="10"/>
-      <c r="E160" s="9"/>
-    </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D161" s="10"/>
-      <c r="E161" s="9"/>
-    </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D162" s="10"/>
-      <c r="E162" s="9"/>
-    </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D163" s="10"/>
-      <c r="E163" s="9"/>
-    </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D164" s="10"/>
-      <c r="E164" s="9"/>
-    </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D165" s="10"/>
-      <c r="E165" s="9"/>
-    </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D166" s="10"/>
-      <c r="E166" s="9"/>
-    </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D167" s="10"/>
-      <c r="E167" s="9"/>
-    </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D168" s="10"/>
-      <c r="E168" s="9"/>
-    </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D169" s="10"/>
-      <c r="E169" s="9"/>
-    </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D170" s="10"/>
-      <c r="E170" s="9"/>
-    </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D171" s="10"/>
-      <c r="E171" s="9"/>
-    </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D172" s="10"/>
-      <c r="E172" s="9"/>
-    </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D173" s="10"/>
-      <c r="E173" s="9"/>
-    </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D174" s="10"/>
-      <c r="E174" s="9"/>
-    </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D175" s="10"/>
-      <c r="E175" s="9"/>
-    </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D176" s="10"/>
-      <c r="E176" s="9"/>
-    </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D177" s="10"/>
-      <c r="E177" s="9"/>
-    </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D178" s="10"/>
-      <c r="E178" s="9"/>
-    </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D179" s="10"/>
-      <c r="E179" s="9"/>
-    </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D180" s="10"/>
-      <c r="E180" s="9"/>
-    </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D181" s="10"/>
-      <c r="E181" s="9"/>
-    </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D182" s="10"/>
-      <c r="E182" s="9"/>
-    </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D183" s="10"/>
-      <c r="E183" s="9"/>
-    </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D184" s="10"/>
-      <c r="E184" s="9"/>
-    </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D185" s="10"/>
-      <c r="E185" s="9"/>
-    </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D186" s="10"/>
-      <c r="E186" s="9"/>
-    </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D187" s="10"/>
-      <c r="E187" s="9"/>
-    </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D188" s="10"/>
-      <c r="E188" s="9"/>
-    </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D189" s="10"/>
-      <c r="E189" s="9"/>
-    </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D190" s="10"/>
-      <c r="E190" s="9"/>
-    </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D191" s="10"/>
-      <c r="E191" s="9"/>
-    </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D192" s="10"/>
-      <c r="E192" s="9"/>
-    </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D193" s="10"/>
-      <c r="E193" s="9"/>
-    </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D194" s="10"/>
-      <c r="E194" s="9"/>
-    </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D195" s="10"/>
-      <c r="E195" s="9"/>
-    </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D196" s="10"/>
-      <c r="E196" s="9"/>
-    </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D197" s="10"/>
-      <c r="E197" s="9"/>
-    </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D198" s="10"/>
-      <c r="E198" s="9"/>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E149" s="26"/>
+      <c r="F149" s="25"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E150" s="26"/>
+      <c r="F150" s="25"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E151" s="26"/>
+      <c r="F151" s="25"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E152" s="26"/>
+      <c r="F152" s="25"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E153" s="26"/>
+      <c r="F153" s="25"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E154" s="26"/>
+      <c r="F154" s="25"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E155" s="26"/>
+      <c r="F155" s="25"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E156" s="26"/>
+      <c r="F156" s="25"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E157" s="26"/>
+      <c r="F157" s="25"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E158" s="26"/>
+      <c r="F158" s="25"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E159" s="26"/>
+      <c r="F159" s="25"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E160" s="26"/>
+      <c r="F160" s="25"/>
+    </row>
+    <row r="161" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E161" s="26"/>
+      <c r="F161" s="25"/>
+    </row>
+    <row r="162" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E162" s="26"/>
+      <c r="F162" s="25"/>
+    </row>
+    <row r="163" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E163" s="26"/>
+      <c r="F163" s="25"/>
+    </row>
+    <row r="164" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E164" s="26"/>
+      <c r="F164" s="25"/>
+    </row>
+    <row r="165" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E165" s="26"/>
+      <c r="F165" s="25"/>
+    </row>
+    <row r="166" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E166" s="26"/>
+      <c r="F166" s="25"/>
+    </row>
+    <row r="167" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E167" s="26"/>
+      <c r="F167" s="25"/>
+    </row>
+    <row r="168" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E168" s="26"/>
+      <c r="F168" s="25"/>
+    </row>
+    <row r="169" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E169" s="26"/>
+      <c r="F169" s="25"/>
+    </row>
+    <row r="170" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E170" s="26"/>
+      <c r="F170" s="25"/>
+    </row>
+    <row r="171" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E171" s="26"/>
+      <c r="F171" s="25"/>
+    </row>
+    <row r="172" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E172" s="26"/>
+      <c r="F172" s="25"/>
+    </row>
+    <row r="173" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E173" s="26"/>
+      <c r="F173" s="25"/>
+    </row>
+    <row r="174" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E174" s="26"/>
+      <c r="F174" s="25"/>
+    </row>
+    <row r="175" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E175" s="26"/>
+      <c r="F175" s="25"/>
+    </row>
+    <row r="176" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E176" s="26"/>
+      <c r="F176" s="25"/>
+    </row>
+    <row r="177" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E177" s="26"/>
+      <c r="F177" s="25"/>
+    </row>
+    <row r="178" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E178" s="26"/>
+      <c r="F178" s="25"/>
+    </row>
+    <row r="179" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E179" s="26"/>
+      <c r="F179" s="25"/>
+    </row>
+    <row r="180" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E180" s="26"/>
+      <c r="F180" s="25"/>
+    </row>
+    <row r="181" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E181" s="26"/>
+      <c r="F181" s="25"/>
+    </row>
+    <row r="182" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E182" s="26"/>
+      <c r="F182" s="25"/>
+    </row>
+    <row r="183" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E183" s="26"/>
+      <c r="F183" s="25"/>
+    </row>
+    <row r="184" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E184" s="26"/>
+      <c r="F184" s="25"/>
+    </row>
+    <row r="185" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E185" s="26"/>
+      <c r="F185" s="25"/>
+    </row>
+    <row r="186" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E186" s="26"/>
+      <c r="F186" s="25"/>
+    </row>
+    <row r="187" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E187" s="26"/>
+      <c r="F187" s="25"/>
+    </row>
+    <row r="188" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E188" s="26"/>
+      <c r="F188" s="25"/>
+    </row>
+    <row r="189" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E189" s="26"/>
+      <c r="F189" s="25"/>
+    </row>
+    <row r="190" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E190" s="26"/>
+      <c r="F190" s="25"/>
+    </row>
+    <row r="191" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E191" s="26"/>
+      <c r="F191" s="25"/>
+    </row>
+    <row r="192" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E192" s="26"/>
+      <c r="F192" s="25"/>
+    </row>
+    <row r="193" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E193" s="26"/>
+      <c r="F193" s="25"/>
+    </row>
+    <row r="194" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E194" s="26"/>
+      <c r="F194" s="25"/>
+    </row>
+    <row r="195" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E195" s="26"/>
+      <c r="F195" s="25"/>
+    </row>
+    <row r="196" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E196" s="26"/>
+      <c r="F196" s="25"/>
+    </row>
+    <row r="197" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E197" s="26"/>
+      <c r="F197" s="25"/>
+    </row>
+    <row r="198" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E198" s="26"/>
+      <c r="F198" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D23" twoDigitTextYear="1"/>
+    <ignoredError sqref="E23" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5042,7 +5822,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
         <v>329</v>
       </c>
